--- a/test.xlsx
+++ b/test.xlsx
@@ -14,62 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="1">
   <si>
     <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">hola2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">queso2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hola3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">queso3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monsta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts/>
-  <fonts x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,7 +39,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills>
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders>
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,7 +66,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs>
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -123,9 +78,6 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -436,70 +388,53 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1"/>
-      <c r="B1" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="F1" s="4">
-        <v>3</v>
-      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="1"/>
-      <c r="B2" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s" s="4">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4">
-        <v>3</v>
-      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="4"/>
-      <c r="B3" t="s" s="3">
-        <v>14</v>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -511,8 +446,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="4"/>
-      <c r="B4" t="s" s="3">
-        <v>15</v>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -524,7 +459,9 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
@@ -535,7 +472,9 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
@@ -546,7 +485,9 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
@@ -557,7 +498,9 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
@@ -568,7 +511,9 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
@@ -579,7 +524,9 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
@@ -588,6 +535,17 @@
       <c r="H10" s="4"/>
       <c r="I10" s="3"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
